--- a/ExcelFiles/Dimensions_Columns.xlsx
+++ b/ExcelFiles/Dimensions_Columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_car\CarilionCube\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4326B5-1663-4015-A13D-7BB4D610CB19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748609A3-4427-4F69-99A1-C5F43DF1D38A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7920" firstSheet="1" activeTab="3" xr2:uid="{372C6A17-8981-47C2-B1A3-C64A9EDFC534}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7920" xr2:uid="{372C6A17-8981-47C2-B1A3-C64A9EDFC534}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Dimensions" sheetId="3" r:id="rId1"/>
@@ -3416,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96754B-F1B0-4FC2-8246-B0F914E0996F}">
   <dimension ref="A1:E2412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2412"/>
     </sheetView>
   </sheetViews>
@@ -62116,7 +62116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622E5334-052A-44B3-ABBD-D2C7E536453C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
